--- a/Тестовые данные.xlsx
+++ b/Тестовые данные.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Практика\ТРиЗБД\День 1\Sessija_1\Сессия 1\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Практика\ТРиЗБД\День 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4ACD5D-A645-4FAF-905C-5005C3A6A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AB8AAA-2914-4BC4-8B56-5A189D26577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи личное посещение" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="285">
   <si>
     <t>ФИО</t>
   </si>
@@ -611,54 +611,30 @@
     <t>Код сотрудника</t>
   </si>
   <si>
-    <t>Фомичева Авдотья Трофимовна</t>
-  </si>
-  <si>
     <t>Производство</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Гаврилова Римма Ефимовна</t>
-  </si>
-  <si>
     <t>Сбыт</t>
   </si>
   <si>
-    <t>Носкова Наталия Прохоровна</t>
-  </si>
-  <si>
     <t>Администрация</t>
   </si>
   <si>
-    <t>Архипов Тимофей Васильевич</t>
-  </si>
-  <si>
     <t>Служба безопасности</t>
   </si>
   <si>
-    <t>Орехова Вероника Артемовна</t>
-  </si>
-  <si>
     <t>Планирование</t>
   </si>
   <si>
-    <t>Савельев Павел Степанович</t>
-  </si>
-  <si>
     <t>Общий отдел</t>
   </si>
   <si>
-    <t>Чернов Всеволод Наумович</t>
-  </si>
-  <si>
     <t>Охрана</t>
   </si>
   <si>
-    <t>Марков Юрий Романович</t>
-  </si>
-  <si>
     <t>Степанова</t>
   </si>
   <si>
@@ -825,6 +801,87 @@
   </si>
   <si>
     <t>Сотрудник банка</t>
+  </si>
+  <si>
+    <t>ид</t>
+  </si>
+  <si>
+    <t>Ф</t>
+  </si>
+  <si>
+    <t>И</t>
+  </si>
+  <si>
+    <t>О</t>
+  </si>
+  <si>
+    <t>Фомичева</t>
+  </si>
+  <si>
+    <t>Авдотья</t>
+  </si>
+  <si>
+    <t>Трофимовна</t>
+  </si>
+  <si>
+    <t>Гаврилова</t>
+  </si>
+  <si>
+    <t>Римма</t>
+  </si>
+  <si>
+    <t>Ефимовна</t>
+  </si>
+  <si>
+    <t>Носкова</t>
+  </si>
+  <si>
+    <t>Наталия</t>
+  </si>
+  <si>
+    <t>Прохоровна</t>
+  </si>
+  <si>
+    <t>Архипов</t>
+  </si>
+  <si>
+    <t>Тимофей</t>
+  </si>
+  <si>
+    <t>Васильевич</t>
+  </si>
+  <si>
+    <t>Орехова</t>
+  </si>
+  <si>
+    <t>Вероника</t>
+  </si>
+  <si>
+    <t>Артемовна</t>
+  </si>
+  <si>
+    <t>Савельев</t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>Степанович</t>
+  </si>
+  <si>
+    <t>Чернов</t>
+  </si>
+  <si>
+    <t>Всеволод</t>
+  </si>
+  <si>
+    <t>Наумович</t>
+  </si>
+  <si>
+    <t>Марков</t>
+  </si>
+  <si>
+    <t>Юрий</t>
   </si>
 </sst>
 </file>
@@ -891,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -900,6 +957,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1117,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="A2:K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1139,13 +1197,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -1154,10 +1212,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1174,13 +1232,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -1189,16 +1247,16 @@
         <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I2" s="4">
         <v>31703</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="K2">
         <v>530509</v>
@@ -1212,13 +1270,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1227,10 +1285,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I3" s="6">
         <v>28407</v>
@@ -1250,13 +1308,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1265,10 +1323,10 @@
         <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I4" s="4">
         <v>26214</v>
@@ -1288,13 +1346,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1303,10 +1361,10 @@
         <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I5" s="4">
         <v>30362</v>
@@ -1326,13 +1384,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>28</v>
@@ -1341,10 +1399,10 @@
         <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I6" s="4">
         <v>29424</v>
@@ -1364,13 +1422,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
@@ -1379,10 +1437,10 @@
         <v>34</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I7" s="4">
         <v>34994</v>
@@ -1402,13 +1460,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>38</v>
@@ -1417,10 +1475,10 @@
         <v>39</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I8" s="4">
         <v>33243</v>
@@ -1440,13 +1498,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>43</v>
@@ -1455,10 +1513,10 @@
         <v>44</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I9" s="4">
         <v>34192</v>
@@ -1478,13 +1536,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>48</v>
@@ -1493,10 +1551,10 @@
         <v>49</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I10" s="4">
         <v>28635</v>
@@ -1516,13 +1574,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>53</v>
@@ -1531,10 +1589,10 @@
         <v>54</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I11" s="4">
         <v>33720</v>
@@ -1554,13 +1612,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>58</v>
@@ -1569,16 +1627,16 @@
         <v>59</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I12" s="4">
         <v>34183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K12">
         <v>647226</v>
@@ -1592,13 +1650,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>63</v>
@@ -1607,10 +1665,10 @@
         <v>64</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I13" s="4">
         <v>33396</v>
@@ -1630,13 +1688,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>68</v>
@@ -1645,10 +1703,10 @@
         <v>69</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I14" s="4">
         <v>35131</v>
@@ -1668,13 +1726,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>73</v>
@@ -1683,10 +1741,10 @@
         <v>74</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I15" s="4">
         <v>29853</v>
@@ -1706,13 +1764,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>78</v>
@@ -1721,10 +1779,10 @@
         <v>79</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I16" s="4">
         <v>29664</v>
@@ -1764,6 +1822,9 @@
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="E21" s="2"/>
+      <c r="G21">
+        <v>1</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1774,6 +1835,9 @@
     <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="E22" s="2"/>
+      <c r="G22">
+        <v>2</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1784,6 +1848,9 @@
     <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="E23" s="2"/>
+      <c r="G23">
+        <v>3</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1794,6 +1861,9 @@
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="E24" s="2"/>
+      <c r="G24">
+        <v>4</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1804,6 +1874,9 @@
     <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="E25" s="2"/>
+      <c r="G25">
+        <v>5</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1814,6 +1887,9 @@
     <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="E26" s="2"/>
+      <c r="G26">
+        <v>6</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1824,6 +1900,9 @@
     <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="E27" s="2"/>
+      <c r="G27">
+        <v>7</v>
+      </c>
       <c r="H27" s="1" t="s">
         <v>40</v>
       </c>
@@ -1834,6 +1913,9 @@
     <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="E28" s="2"/>
+      <c r="G28">
+        <v>8</v>
+      </c>
       <c r="H28" s="1" t="s">
         <v>45</v>
       </c>
@@ -1844,6 +1926,9 @@
     <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="E29" s="2"/>
+      <c r="G29">
+        <v>9</v>
+      </c>
       <c r="H29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1854,6 +1939,9 @@
     <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="E30" s="2"/>
+      <c r="G30">
+        <v>10</v>
+      </c>
       <c r="H30" s="1" t="s">
         <v>55</v>
       </c>
@@ -1864,6 +1952,9 @@
     <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="E31" s="2"/>
+      <c r="G31">
+        <v>11</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1874,6 +1965,9 @@
     <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="E32" s="2"/>
+      <c r="G32">
+        <v>12</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>65</v>
       </c>
@@ -1884,6 +1978,9 @@
     <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="E33" s="2"/>
+      <c r="G33">
+        <v>13</v>
+      </c>
       <c r="H33" s="1" t="s">
         <v>70</v>
       </c>
@@ -1894,6 +1991,9 @@
     <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="E34" s="2"/>
+      <c r="G34">
+        <v>14</v>
+      </c>
       <c r="H34" s="1" t="s">
         <v>75</v>
       </c>
@@ -1904,6 +2004,9 @@
     <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="E35" s="2"/>
+      <c r="G35">
+        <v>15</v>
+      </c>
       <c r="H35" s="1" t="s">
         <v>80</v>
       </c>
@@ -5784,7 +5887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10208,151 +10313,262 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="1">
-        <v>9367788</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9788737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9736379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9362832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="1">
-        <v>9737848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9768239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9404040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Тестовые данные.xlsx
+++ b/Тестовые данные.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Практика\ТРиЗБД\День 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AB8AAA-2914-4BC4-8B56-5A189D26577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED7A7F7-6F37-4AFC-A252-FD7E2B3F42F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи личное посещение" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="279">
   <si>
     <t>ФИО</t>
   </si>
@@ -803,18 +803,6 @@
     <t>Сотрудник банка</t>
   </si>
   <si>
-    <t>ид</t>
-  </si>
-  <si>
-    <t>Ф</t>
-  </si>
-  <si>
-    <t>И</t>
-  </si>
-  <si>
-    <t>О</t>
-  </si>
-  <si>
     <t>Фомичева</t>
   </si>
   <si>
@@ -876,12 +864,6 @@
   </si>
   <si>
     <t>Наумович</t>
-  </si>
-  <si>
-    <t>Марков</t>
-  </si>
-  <si>
-    <t>Юрий</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1158,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:I35"/>
+      <selection activeCell="K16" sqref="A2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1822,9 +1804,6 @@
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21">
-        <v>1</v>
-      </c>
       <c r="H21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1835,9 +1814,6 @@
     <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22">
-        <v>2</v>
-      </c>
       <c r="H22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1848,9 +1824,6 @@
     <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23">
-        <v>3</v>
-      </c>
       <c r="H23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1861,9 +1834,6 @@
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="G24">
-        <v>4</v>
-      </c>
       <c r="H24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1874,9 +1844,6 @@
     <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="G25">
-        <v>5</v>
-      </c>
       <c r="H25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1887,9 +1854,6 @@
     <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="G26">
-        <v>6</v>
-      </c>
       <c r="H26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1900,9 +1864,6 @@
     <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="G27">
-        <v>7</v>
-      </c>
       <c r="H27" s="1" t="s">
         <v>40</v>
       </c>
@@ -1913,9 +1874,6 @@
     <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="G28">
-        <v>8</v>
-      </c>
       <c r="H28" s="1" t="s">
         <v>45</v>
       </c>
@@ -1926,9 +1884,6 @@
     <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="G29">
-        <v>9</v>
-      </c>
       <c r="H29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1939,9 +1894,6 @@
     <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="G30">
-        <v>10</v>
-      </c>
       <c r="H30" s="1" t="s">
         <v>55</v>
       </c>
@@ -1952,9 +1904,6 @@
     <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="G31">
-        <v>11</v>
-      </c>
       <c r="H31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1965,9 +1914,6 @@
     <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="G32">
-        <v>12</v>
-      </c>
       <c r="H32" s="1" t="s">
         <v>65</v>
       </c>
@@ -1978,9 +1924,6 @@
     <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="G33">
-        <v>13</v>
-      </c>
       <c r="H33" s="1" t="s">
         <v>70</v>
       </c>
@@ -1991,9 +1934,6 @@
     <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="G34">
-        <v>14</v>
-      </c>
       <c r="H34" s="1" t="s">
         <v>75</v>
       </c>
@@ -2004,9 +1944,6 @@
     <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="G35">
-        <v>15</v>
-      </c>
       <c r="H35" s="1" t="s">
         <v>80</v>
       </c>
@@ -5887,9 +5824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10315,18 +10250,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -10334,13 +10268,7 @@
         <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" t="s">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>191</v>
@@ -10350,225 +10278,253 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
+        <v>9367788</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>9788737</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
         <v>262</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>263</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>9736379</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E2">
+      <c r="C4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>9362832</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>9737848</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" t="s">
         <v>271</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>272</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>9768239</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" t="s">
         <v>274</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>275</v>
-      </c>
-      <c r="D6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" t="s">
-        <v>279</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>200</v>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="1">
+        <v>9404040</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17">
+    </row>
+    <row r="24" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18">
+    </row>
+    <row r="25" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="26" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
